--- a/2023. CTACTE.xlsx
+++ b/2023. CTACTE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ENE-FEB" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="36">
   <si>
     <t>FAC NUM</t>
   </si>
@@ -74,6 +74,75 @@
   </si>
   <si>
     <t>VENDEDOR</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
+    <t>30-7895</t>
+  </si>
+  <si>
+    <t>6549879645</t>
+  </si>
+  <si>
+    <t>654657987624313213213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA ALEJANDR0 </t>
+  </si>
+  <si>
+    <t>SALTA  - CP: 4400</t>
+  </si>
+  <si>
+    <t>SALTA CAPITAL</t>
+  </si>
+  <si>
+    <t>Salta</t>
+  </si>
+  <si>
+    <t>ELE</t>
+  </si>
+  <si>
+    <t>30-44456</t>
+  </si>
+  <si>
+    <t>0293578953795345</t>
+  </si>
+  <si>
+    <t>2934879234792439284759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCAMPO JOSE LUIS </t>
+  </si>
+  <si>
+    <t>VENADO TUERTO - CP: 2600</t>
+  </si>
+  <si>
+    <t>VENADO TUERTO</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>30-44455</t>
+  </si>
+  <si>
+    <t>023870-345-345</t>
+  </si>
+  <si>
+    <t>69287322414643433454345</t>
+  </si>
+  <si>
+    <t>SILVA LAUTARO</t>
+  </si>
+  <si>
+    <t>SAN RAFAEL - CP: 5600</t>
+  </si>
+  <si>
+    <t>SAN RAFAEL</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
   </si>
 </sst>
 </file>
@@ -138,11 +207,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,13 +495,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja12"/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,6 +539,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -479,13 +553,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,6 +597,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -534,13 +611,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,6 +655,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -589,7 +669,7 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -597,7 +677,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,6 +715,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -646,68 +729,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja11"/>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja10"/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,6 +773,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -753,16 +784,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:M1"/>
+  <sheetPr codeName="Hoja10"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,6 +831,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -808,16 +842,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja8"/>
-  <dimension ref="A1:M1"/>
+  <sheetPr codeName="Hoja9"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,6 +889,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -863,16 +900,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:M1"/>
+  <sheetPr codeName="Hoja8"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,6 +947,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -918,16 +958,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:M1"/>
+  <sheetPr codeName="Hoja7"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,6 +1005,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -973,16 +1016,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:M1"/>
+  <sheetPr codeName="Hoja6"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,6 +1063,9 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1028,16 +1074,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:M1"/>
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1121,202 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45167</v>
+      </c>
+      <c r="C2">
+        <v>27571260</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>1815</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>605</v>
+      </c>
+      <c r="J2">
+        <v>3874062789</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45167</v>
+      </c>
+      <c r="C3">
+        <v>33105934</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>6549875</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3274937.5</v>
+      </c>
+      <c r="J3">
+        <v>3462570356</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45167</v>
+      </c>
+      <c r="C4">
+        <v>42795241</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>20900</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>3483.3333333333335</v>
+      </c>
+      <c r="J4">
+        <v>2604104006</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
